--- a/Mid-Thesis Report/MTR References v3.xlsx
+++ b/Mid-Thesis Report/MTR References v3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFA45691-8AED-48E2-9518-D43BA169F201}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01C1821B-D047-4F09-930C-84F1033E0B9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature Review" sheetId="1" r:id="rId1"/>
@@ -690,9 +690,6 @@
     <t>Plots &amp; visualizations about the data</t>
   </si>
   <si>
-    <t>Summary Table: Reduce font size</t>
-  </si>
-  <si>
     <t>Write abou the ML models</t>
   </si>
   <si>
@@ -735,6 +732,9 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>Summary Table: Looks weird, correct it</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,6 +848,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1109,7 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,6 +1127,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
@@ -2603,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E708CC-A770-445A-B526-8DA5947F7D9E}">
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="168" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" zoomScale="168" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,114 +2621,114 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>151</v>
+      <c r="C2" s="33" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="27"/>
+        <v>145</v>
+      </c>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="27"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="27"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="27"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="2:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="27"/>
+        <v>151</v>
+      </c>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="27"/>
+        <v>144</v>
+      </c>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="27"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="27"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="27"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="35"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
@@ -2744,31 +2750,31 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="27"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="27"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="27"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="27"/>
     </row>
     <row r="27" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="30"/>
     </row>

--- a/Mid-Thesis Report/MTR References v3.xlsx
+++ b/Mid-Thesis Report/MTR References v3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01C1821B-D047-4F09-930C-84F1033E0B9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC1E6EAE-B238-4D3A-91CB-DC837B02E918}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18105" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Literature Review" sheetId="1" r:id="rId1"/>
@@ -1121,13 +1121,13 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2632,25 +2632,25 @@
       <c r="B3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
@@ -2677,34 +2677,34 @@
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="34"/>
     </row>
     <row r="13" spans="2:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="26" t="s">
@@ -2725,10 +2725,10 @@
       <c r="C18" s="27"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
